--- a/outputs/Scenario_REC.xlsx
+++ b/outputs/Scenario_REC.xlsx
@@ -3748,16 +3748,16 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>18059.37613115447</v>
+        <v>18059.10571415281</v>
       </c>
       <c r="C93">
-        <v>23071.95857584629</v>
+        <v>23068.77220706065</v>
       </c>
       <c r="D93">
-        <v>2539.099902888961</v>
+        <v>2538.859220512639</v>
       </c>
       <c r="E93">
-        <v>13230.90152349748</v>
+        <v>13230.08592634921</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3765,16 +3765,16 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>17995.56378340205</v>
+        <v>17995.02294941439</v>
       </c>
       <c r="C94">
-        <v>22280.36900851408</v>
+        <v>22273.99627112741</v>
       </c>
       <c r="D94">
-        <v>2479.473728711265</v>
+        <v>2478.992363972565</v>
       </c>
       <c r="E94">
-        <v>13029.81470526613</v>
+        <v>13028.18351101684</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3782,16 +3782,16 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>17914.89416504508</v>
+        <v>17914.08291405576</v>
       </c>
       <c r="C95">
-        <v>21434.46125631548</v>
+        <v>21424.90215014317</v>
       </c>
       <c r="D95">
-        <v>2415.138880432992</v>
+        <v>2414.41683331797</v>
       </c>
       <c r="E95">
-        <v>12809.25238179759</v>
+        <v>12806.80559040003</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3799,16 +3799,16 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>17818.53556873937</v>
+        <v>17817.45390076405</v>
       </c>
       <c r="C96">
-        <v>20529.21810062355</v>
+        <v>20516.47262585021</v>
       </c>
       <c r="D96">
-        <v>2345.79522479212</v>
+        <v>2344.832495314721</v>
       </c>
       <c r="E96">
-        <v>12568.65555374277</v>
+        <v>12565.39316524419</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3816,16 +3816,16 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>17707.07356710512</v>
+        <v>17705.72148212814</v>
       </c>
       <c r="C97">
-        <v>19558.95381253932</v>
+        <v>19543.02196898033</v>
       </c>
       <c r="D97">
-        <v>2271.066117755685</v>
+        <v>2269.862705901963</v>
       </c>
       <c r="E97">
-        <v>12307.05480972394</v>
+        <v>12302.97682407709</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3833,16 +3833,16 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>17580.26322945248</v>
+        <v>17578.64072747383</v>
       </c>
       <c r="C98">
-        <v>18517.17771083336</v>
+        <v>18498.05949848874</v>
       </c>
       <c r="D98">
-        <v>2190.476415907755</v>
+        <v>2189.032321677711</v>
       </c>
       <c r="E98">
-        <v>12022.92794107986</v>
+        <v>12018.03435828474</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3850,16 +3850,16 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>17436.96998069817</v>
+        <v>17435.07706167086</v>
       </c>
       <c r="C99">
-        <v>17396.43357351424</v>
+        <v>17374.12899183017</v>
       </c>
       <c r="D99">
-        <v>2103.438095391027</v>
+        <v>2101.753318742829</v>
       </c>
       <c r="E99">
-        <v>11714.13813104751</v>
+        <v>11708.42895096236</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3867,16 +3867,16 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>17275.24809593355</v>
+        <v>17273.08476001424</v>
       </c>
       <c r="C100">
-        <v>16188.09768383614</v>
+        <v>16162.60673465866</v>
       </c>
       <c r="D100">
-        <v>2009.239727283263</v>
+        <v>2007.314268356352</v>
       </c>
       <c r="E100">
-        <v>11377.92577029334</v>
+        <v>11371.40099339068</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3884,16 +3884,16 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>17092.48711084867</v>
+        <v>17090.0533578807</v>
       </c>
       <c r="C101">
-        <v>14882.14217128628</v>
+        <v>14853.46485276935</v>
       </c>
       <c r="D101">
-        <v>1907.036836268139</v>
+        <v>1904.870694923073</v>
       </c>
       <c r="E101">
-        <v>11010.92362747439</v>
+        <v>11003.58325328171</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3901,16 +3901,16 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>16885.54137875629</v>
+        <v>16882.83720873965</v>
       </c>
       <c r="C102">
-        <v>13466.8355334409</v>
+        <v>13434.97184558451</v>
       </c>
       <c r="D102">
-        <v>1795.836944386656</v>
+        <v>1793.430120623435</v>
       </c>
       <c r="E102">
-        <v>10609.1506983377</v>
+        <v>10600.99472685499</v>
       </c>
     </row>
   </sheetData>
@@ -6320,25 +6320,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>11436.32037083221</v>
+        <v>11435.92664687383</v>
       </c>
       <c r="C93">
-        <v>6835.765058329106</v>
+        <v>6835.446616936675</v>
       </c>
       <c r="D93">
-        <v>3347.466512262521</v>
+        <v>3347.199512610349</v>
       </c>
       <c r="E93">
-        <v>1207.708736628623</v>
+        <v>1207.556289961102</v>
       </c>
       <c r="F93">
-        <v>11130.06621853725</v>
+        <v>11129.0231924803</v>
       </c>
       <c r="G93">
-        <v>2569.785248737187</v>
+        <v>2569.51414953435</v>
       </c>
       <c r="H93">
-        <v>2046.955122380346</v>
+        <v>2046.745201815444</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6346,25 +6346,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11340.30304224082</v>
+        <v>11339.51559434687</v>
       </c>
       <c r="C94">
-        <v>6757.602042674233</v>
+        <v>6756.965159907819</v>
       </c>
       <c r="D94">
-        <v>3281.431542440916</v>
+        <v>3280.897543152041</v>
       </c>
       <c r="E94">
-        <v>1169.858134877346</v>
+        <v>1169.553241551135</v>
       </c>
       <c r="F94">
-        <v>10871.69548388795</v>
+        <v>10869.60943183449</v>
       </c>
       <c r="G94">
-        <v>2502.562979552098</v>
+        <v>2502.020781162129</v>
       </c>
       <c r="H94">
-        <v>1994.914763093646</v>
+        <v>1994.494921976005</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6372,25 +6372,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>11231.04338393942</v>
+        <v>11229.86221208709</v>
       </c>
       <c r="C95">
-        <v>6670.564813677553</v>
+        <v>6669.609489518709</v>
       </c>
       <c r="D95">
-        <v>3209.76933198772</v>
+        <v>3208.968333046673</v>
       </c>
       <c r="E95">
-        <v>1129.32976013335</v>
+        <v>1128.872420139618</v>
       </c>
       <c r="F95">
-        <v>10592.82286694918</v>
+        <v>10589.69378883876</v>
       </c>
       <c r="G95">
-        <v>2430.257706013489</v>
+        <v>2429.444408420683</v>
       </c>
       <c r="H95">
-        <v>1938.895049405817</v>
+        <v>1938.265287723275</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6398,25 +6398,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>11108.77143052333</v>
+        <v>11107.19653473544</v>
       </c>
       <c r="C96">
-        <v>6574.600441574863</v>
+        <v>6573.326676042037</v>
       </c>
       <c r="D96">
-        <v>3132.199473882933</v>
+        <v>3131.131475305183</v>
       </c>
       <c r="E96">
-        <v>1085.893854984852</v>
+        <v>1085.284068332431</v>
       </c>
       <c r="F96">
-        <v>10292.16023507031</v>
+        <v>10287.98813096338</v>
       </c>
       <c r="G96">
-        <v>2352.502634004131</v>
+        <v>2351.418237224196</v>
       </c>
       <c r="H96">
-        <v>1878.617613333661</v>
+        <v>1877.777931098379</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6424,25 +6424,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10973.35414990744</v>
+        <v>10971.38553016117</v>
       </c>
       <c r="C97">
-        <v>6469.441204602372</v>
+        <v>6467.848997677117</v>
       </c>
       <c r="D97">
-        <v>3048.339346831828</v>
+        <v>3047.004348601907</v>
       </c>
       <c r="E97">
-        <v>1039.285285142808</v>
+        <v>1038.523051822865</v>
       </c>
       <c r="F97">
-        <v>9968.083752238175</v>
+        <v>9962.868622074297</v>
       </c>
       <c r="G97">
-        <v>2268.854269413468</v>
+        <v>2267.498773430696</v>
       </c>
       <c r="H97">
-        <v>1813.742830717189</v>
+        <v>1812.693227917006</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6450,25 +6450,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10824.15263699408</v>
+        <v>10821.79029328943</v>
       </c>
       <c r="C98">
-        <v>6354.524499038725</v>
+        <v>6352.613850721037</v>
       </c>
       <c r="D98">
-        <v>2957.671936597032</v>
+        <v>2956.069938714938</v>
       </c>
       <c r="E98">
-        <v>989.1954878625584</v>
+        <v>988.2808078750943</v>
       </c>
       <c r="F98">
-        <v>9618.536732002733</v>
+        <v>9612.278575781907</v>
       </c>
       <c r="G98">
-        <v>2178.771907841277</v>
+        <v>2177.145312655667</v>
       </c>
       <c r="H98">
-        <v>1743.853101952715</v>
+        <v>1742.59357858763</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6476,25 +6476,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10659.97800273952</v>
+        <v>10657.22193500807</v>
       </c>
       <c r="C99">
-        <v>6228.963985639157</v>
+        <v>6226.73489587369</v>
       </c>
       <c r="D99">
-        <v>2859.528382275514</v>
+        <v>2857.659384694841</v>
       </c>
       <c r="E99">
-        <v>935.2644952532627</v>
+        <v>934.197368571781</v>
       </c>
       <c r="F99">
-        <v>9240.966957659759</v>
+        <v>9233.665775200699</v>
       </c>
       <c r="G99">
-        <v>2081.602256383687</v>
+        <v>2079.704561948121</v>
       </c>
       <c r="H99">
-        <v>1668.440782789394</v>
+        <v>1666.971338822922</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6502,25 +6502,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10479.11741280737</v>
+        <v>10475.96762127721</v>
       </c>
       <c r="C100">
-        <v>6091.556312441924</v>
+        <v>6089.008781413171</v>
       </c>
       <c r="D100">
-        <v>2753.079453134782</v>
+        <v>2750.943456010219</v>
       </c>
       <c r="E100">
-        <v>877.0718890395633</v>
+        <v>875.8523157523856</v>
       </c>
       <c r="F100">
-        <v>8832.281824295545</v>
+        <v>8823.937616202542</v>
       </c>
       <c r="G100">
-        <v>1976.565855295516</v>
+        <v>1974.397061767058</v>
       </c>
       <c r="H100">
-        <v>1586.898009286432</v>
+        <v>1585.218644840192</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6528,25 +6528,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>10279.39362194971</v>
+        <v>10275.85010639274</v>
       </c>
       <c r="C101">
-        <v>5940.804305438776</v>
+        <v>5937.938332962246</v>
       </c>
       <c r="D101">
-        <v>2637.330341043929</v>
+        <v>2634.927344220788</v>
       </c>
       <c r="E101">
-        <v>814.1265520361654</v>
+        <v>812.7545320549696</v>
       </c>
       <c r="F101">
-        <v>8388.807865727207</v>
+        <v>8379.420631395971</v>
       </c>
       <c r="G101">
-        <v>1862.743217421343</v>
+        <v>1860.303324642929</v>
       </c>
       <c r="H101">
-        <v>1498.506555481318</v>
+        <v>1496.617270433691</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6554,25 +6554,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>10058.21060238744</v>
+        <v>10054.27336280366</v>
       </c>
       <c r="C102">
-        <v>5774.930639521758</v>
+        <v>5771.746225597449</v>
       </c>
       <c r="D102">
-        <v>2511.109177037042</v>
+        <v>2508.439180515322</v>
       </c>
       <c r="E102">
-        <v>745.8533398143203</v>
+        <v>744.3288731391068</v>
       </c>
       <c r="F102">
-        <v>7906.227158025245</v>
+        <v>7895.796897455775</v>
       </c>
       <c r="G102">
-        <v>1739.055188688503</v>
+        <v>1736.344196660132</v>
       </c>
       <c r="H102">
-        <v>1402.423175392237</v>
+        <v>1400.323969743223</v>
       </c>
     </row>
   </sheetData>
@@ -10420,25 +10420,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>11436.32037083221</v>
+        <v>11435.92664687383</v>
       </c>
       <c r="C93">
-        <v>6835.765058329106</v>
+        <v>6835.446616936675</v>
       </c>
       <c r="D93">
-        <v>1858.515431088737</v>
+        <v>1858.367192720455</v>
       </c>
       <c r="E93">
-        <v>1177.177680578859</v>
+        <v>1177.029087785711</v>
       </c>
       <c r="F93">
-        <v>6528.091258921297</v>
+        <v>6527.479495329645</v>
       </c>
       <c r="G93">
-        <v>1232.746434918427</v>
+        <v>1232.61638647334</v>
       </c>
       <c r="H93">
-        <v>2960.080364996383</v>
+        <v>2959.776801065948</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10446,25 +10446,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11340.30304224082</v>
+        <v>11339.51559434687</v>
       </c>
       <c r="C94">
-        <v>6757.602042674233</v>
+        <v>6756.965159907819</v>
       </c>
       <c r="D94">
-        <v>1821.852775926884</v>
+        <v>1821.556299198908</v>
       </c>
       <c r="E94">
-        <v>1140.283947655749</v>
+        <v>1139.986762078062</v>
       </c>
       <c r="F94">
-        <v>6376.549686633437</v>
+        <v>6375.326159485575</v>
       </c>
       <c r="G94">
-        <v>1200.49937741595</v>
+        <v>1200.23928053331</v>
       </c>
       <c r="H94">
-        <v>2884.82534644337</v>
+        <v>2884.218218600088</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10472,25 +10472,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>11231.04338393942</v>
+        <v>11229.86221208709</v>
       </c>
       <c r="C95">
-        <v>6670.564813677553</v>
+        <v>6669.609489518709</v>
       </c>
       <c r="D95">
-        <v>1782.06587336481</v>
+        <v>1781.621158268552</v>
       </c>
       <c r="E95">
-        <v>1100.780136238478</v>
+        <v>1100.334357867643</v>
       </c>
       <c r="F95">
-        <v>6212.983194103639</v>
+        <v>6211.147903364124</v>
       </c>
       <c r="G95">
-        <v>1165.813962273061</v>
+        <v>1165.423816945333</v>
       </c>
       <c r="H95">
-        <v>2803.815825166113</v>
+        <v>2802.905133392395</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10498,25 +10498,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>11108.77143052333</v>
+        <v>11107.19653473544</v>
       </c>
       <c r="C96">
-        <v>6574.600441574863</v>
+        <v>6573.326676042037</v>
       </c>
       <c r="D96">
-        <v>1738.999041255511</v>
+        <v>1738.406087799559</v>
       </c>
       <c r="E96">
-        <v>1058.442297216721</v>
+        <v>1057.847926061347</v>
       </c>
       <c r="F96">
-        <v>6036.636255953016</v>
+        <v>6034.189201657293</v>
       </c>
       <c r="G96">
-        <v>1128.514235432671</v>
+        <v>1127.994041667391</v>
       </c>
       <c r="H96">
-        <v>2716.649256139417</v>
+        <v>2715.435000452852</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10524,25 +10524,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10973.35414990744</v>
+        <v>10971.38553016117</v>
       </c>
       <c r="C97">
-        <v>6469.441204602372</v>
+        <v>6467.848997677117</v>
       </c>
       <c r="D97">
-        <v>1692.439848024867</v>
+        <v>1691.698656200633</v>
       </c>
       <c r="E97">
-        <v>1013.011998935599</v>
+        <v>1012.269034987077</v>
       </c>
       <c r="F97">
-        <v>5846.556447508136</v>
+        <v>5843.497629620759</v>
       </c>
       <c r="G97">
-        <v>1088.38744924049</v>
+        <v>1087.737207030123</v>
       </c>
       <c r="H97">
-        <v>2622.834512422362</v>
+        <v>2621.316692805362</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10550,25 +10550,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10824.15263699408</v>
+        <v>10821.79029328943</v>
       </c>
       <c r="C98">
-        <v>6354.524499038725</v>
+        <v>6352.613850721037</v>
       </c>
       <c r="D98">
-        <v>1642.101247055763</v>
+        <v>1641.211816863246</v>
       </c>
       <c r="E98">
-        <v>964.1884791624195</v>
+        <v>963.2969224207496</v>
       </c>
       <c r="F98">
-        <v>5641.537465358641</v>
+        <v>5637.866883879612</v>
       </c>
       <c r="G98">
-        <v>1045.174223492649</v>
+        <v>1044.393932837194</v>
       </c>
       <c r="H98">
-        <v>2521.767707601517</v>
+        <v>2519.946324054081</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10576,25 +10576,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10659.97800273952</v>
+        <v>10657.22193500807</v>
       </c>
       <c r="C99">
-        <v>6228.963985639157</v>
+        <v>6226.73489587369</v>
       </c>
       <c r="D99">
-        <v>1587.611886370522</v>
+        <v>1586.574217783959</v>
       </c>
       <c r="E99">
-        <v>911.6208700480303</v>
+        <v>910.5807204873861</v>
       </c>
       <c r="F99">
-        <v>5420.082363913145</v>
+        <v>5415.800018736134</v>
       </c>
       <c r="G99">
-        <v>998.5611683840666</v>
+        <v>997.6508292609208</v>
       </c>
       <c r="H99">
-        <v>2412.714742642225</v>
+        <v>2410.589795111593</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -10602,25 +10602,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10479.11741280737</v>
+        <v>10475.96762127721</v>
       </c>
       <c r="C100">
-        <v>6091.556312441924</v>
+        <v>6089.008781413171</v>
       </c>
       <c r="D100">
-        <v>1528.511376565211</v>
+        <v>1527.325469670484</v>
       </c>
       <c r="E100">
-        <v>854.8993815534525</v>
+        <v>853.7106392599228</v>
       </c>
       <c r="F100">
-        <v>5180.377244969421</v>
+        <v>5175.483136448859</v>
       </c>
       <c r="G100">
-        <v>948.1743708718095</v>
+        <v>947.1339833563179</v>
       </c>
       <c r="H100">
-        <v>2294.796591865778</v>
+        <v>2292.368080527823</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -10628,25 +10628,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>10279.39362194971</v>
+        <v>10275.85010639274</v>
       </c>
       <c r="C101">
-        <v>5940.804305438776</v>
+        <v>5937.938332962246</v>
       </c>
       <c r="D101">
-        <v>1464.247399564207</v>
+        <v>1462.913254275433</v>
       </c>
       <c r="E101">
-        <v>793.5453120087027</v>
+        <v>792.2079768961981</v>
       </c>
       <c r="F101">
-        <v>4920.267519146992</v>
+        <v>4914.761646928449</v>
       </c>
       <c r="G101">
-        <v>893.5727456498773</v>
+        <v>892.4023096666949</v>
       </c>
       <c r="H101">
-        <v>2166.974636229671</v>
+        <v>2164.242560908519</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10654,25 +10654,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>10058.21060238744</v>
+        <v>10054.27336280366</v>
       </c>
       <c r="C102">
-        <v>5774.930639521758</v>
+        <v>5771.746225597449</v>
       </c>
       <c r="D102">
-        <v>1394.169333009262</v>
+        <v>1392.686949326441</v>
       </c>
       <c r="E102">
-        <v>726.998056721525</v>
+        <v>725.5121287900461</v>
       </c>
       <c r="F102">
-        <v>4637.220604796536</v>
+        <v>4631.10296888001</v>
       </c>
       <c r="G102">
-        <v>834.2386139213896</v>
+        <v>832.9381294705164</v>
       </c>
       <c r="H102">
-        <v>2028.0294665508</v>
+        <v>2024.993827246451</v>
       </c>
     </row>
   </sheetData>
@@ -13108,25 +13108,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11203.54138223272</v>
+        <v>11203.54118872423</v>
       </c>
       <c r="C94">
-        <v>9690.006178296157</v>
+        <v>9690.006103943871</v>
       </c>
       <c r="D94">
-        <v>2682.448621582711</v>
+        <v>2682.448004268476</v>
       </c>
       <c r="E94">
-        <v>1835.072340713115</v>
+        <v>1835.070562960045</v>
       </c>
       <c r="F94">
-        <v>8801.249497637315</v>
+        <v>8801.249319829567</v>
       </c>
       <c r="G94">
-        <v>2513.135102984849</v>
+        <v>2513.135047588785</v>
       </c>
       <c r="H94">
-        <v>3906.454406238686</v>
+        <v>3906.454285623468</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -13134,25 +13134,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>11179.25383110515</v>
+        <v>11179.25301222984</v>
       </c>
       <c r="C95">
-        <v>9638.02337335831</v>
+        <v>9638.023014445174</v>
       </c>
       <c r="D95">
-        <v>2628.50421161002</v>
+        <v>2628.501698161323</v>
       </c>
       <c r="E95">
-        <v>1787.879869536816</v>
+        <v>1787.873372470066</v>
       </c>
       <c r="F95">
-        <v>8621.27771452534</v>
+        <v>8621.276421201334</v>
       </c>
       <c r="G95">
-        <v>2487.576254330967</v>
+        <v>2487.576002432436</v>
       </c>
       <c r="H95">
-        <v>3807.658245054582</v>
+        <v>3807.657322319931</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -13160,25 +13160,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>11160.13120429066</v>
+        <v>11160.12907002244</v>
       </c>
       <c r="C96">
-        <v>9581.837174841028</v>
+        <v>9581.836145547326</v>
       </c>
       <c r="D96">
-        <v>2575.285165507705</v>
+        <v>2575.278812008035</v>
       </c>
       <c r="E96">
-        <v>1740.981811849084</v>
+        <v>1740.966702708279</v>
       </c>
       <c r="F96">
-        <v>8436.391707986964</v>
+        <v>8436.386824443465</v>
       </c>
       <c r="G96">
-        <v>2460.496689285717</v>
+        <v>2460.495997310991</v>
       </c>
       <c r="H96">
-        <v>3715.107668441848</v>
+        <v>3715.104073126843</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -13186,25 +13186,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>11145.87928980817</v>
+        <v>11145.8748789905</v>
       </c>
       <c r="C97">
-        <v>9521.782382538735</v>
+        <v>9521.780089766014</v>
       </c>
       <c r="D97">
-        <v>2522.841294316808</v>
+        <v>2522.828504953789</v>
       </c>
       <c r="E97">
-        <v>1694.394214324399</v>
+        <v>1694.365809477094</v>
       </c>
       <c r="F97">
-        <v>8251.297328463035</v>
+        <v>8251.283947943499</v>
       </c>
       <c r="G97">
-        <v>2431.993429130694</v>
+        <v>2431.991938742378</v>
       </c>
       <c r="H97">
-        <v>3627.660499922796</v>
+        <v>3627.650427594254</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -13212,25 +13212,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>11136.15613914916</v>
+        <v>11136.1482103567</v>
       </c>
       <c r="C98">
-        <v>9458.178742086437</v>
+        <v>9458.174358802831</v>
       </c>
       <c r="D98">
-        <v>2471.188615708353</v>
+        <v>2471.16616888206</v>
       </c>
       <c r="E98">
-        <v>1648.095668284609</v>
+        <v>1648.048633064411</v>
       </c>
       <c r="F98">
-        <v>8069.141062369454</v>
+        <v>8069.110892463491</v>
       </c>
       <c r="G98">
-        <v>2402.160780739201</v>
+        <v>2402.158009201224</v>
       </c>
       <c r="H98">
-        <v>3543.956706422453</v>
+        <v>3543.933624354879</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -13238,25 +13238,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>11130.57799184978</v>
+        <v>11130.56501690289</v>
       </c>
       <c r="C99">
-        <v>9391.328577489563</v>
+        <v>9391.321019806395</v>
       </c>
       <c r="D99">
-        <v>2420.309058567125</v>
+        <v>2420.273143951647</v>
       </c>
       <c r="E99">
-        <v>1602.029618480611</v>
+        <v>1601.958095440462</v>
       </c>
       <c r="F99">
-        <v>7891.45680758971</v>
+        <v>7891.397226276787</v>
       </c>
       <c r="G99">
-        <v>2371.089471962458</v>
+        <v>2371.084804444713</v>
       </c>
       <c r="H99">
-        <v>3462.546061432782</v>
+        <v>3462.499952545613</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -13264,25 +13264,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>11128.7247560487</v>
+        <v>11128.70491559985</v>
       </c>
       <c r="C100">
-        <v>9321.51459176551</v>
+        <v>9321.502499106022</v>
       </c>
       <c r="D100">
-        <v>2370.150412269415</v>
+        <v>2370.096677298013</v>
       </c>
       <c r="E100">
-        <v>1556.106018958371</v>
+        <v>1556.003747371743</v>
       </c>
       <c r="F100">
-        <v>7718.401280730604</v>
+        <v>7718.294485258261</v>
       </c>
       <c r="G100">
-        <v>2338.86582632002</v>
+        <v>2338.858509785033</v>
       </c>
       <c r="H100">
-        <v>3382.059281520586</v>
+        <v>3381.976038320775</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -13290,25 +13290,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>11130.14493053653</v>
+        <v>11130.11611139753</v>
       </c>
       <c r="C101">
-        <v>9248.997755207627</v>
+        <v>9248.979473223937</v>
       </c>
       <c r="D101">
-        <v>2320.626410861485</v>
+        <v>2320.550015170972</v>
       </c>
       <c r="E101">
-        <v>1510.202521201772</v>
+        <v>1510.062948504516</v>
       </c>
       <c r="F101">
-        <v>7549.136160417579</v>
+        <v>7548.95850626505</v>
       </c>
       <c r="G101">
-        <v>2305.570949902152</v>
+        <v>2305.56008837551</v>
       </c>
       <c r="H101">
-        <v>3301.358415399714</v>
+        <v>3301.219512352892</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -13316,25 +13316,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>11134.35991390461</v>
+        <v>11134.31970790567</v>
       </c>
       <c r="C102">
-        <v>9174.015233073022</v>
+        <v>9173.988799121767</v>
       </c>
       <c r="D102">
-        <v>2271.616865783534</v>
+        <v>2271.512542115184</v>
       </c>
       <c r="E102">
-        <v>1464.165219656373</v>
+        <v>1463.981604693983</v>
       </c>
       <c r="F102">
-        <v>7382.234076135779</v>
+        <v>7381.955710380326</v>
       </c>
       <c r="G102">
-        <v>2271.279913392055</v>
+        <v>2271.264464497819</v>
       </c>
       <c r="H102">
-        <v>3219.613218549455</v>
+        <v>3219.395788031026</v>
       </c>
     </row>
   </sheetData>
@@ -15744,25 +15744,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>496203.4644305225</v>
+        <v>496203.0707065642</v>
       </c>
       <c r="C93">
-        <v>313012.7983635184</v>
+        <v>313012.4799221259</v>
       </c>
       <c r="D93">
-        <v>42454.13218813964</v>
+        <v>42453.98394977136</v>
       </c>
       <c r="E93">
-        <v>25146.71463682476</v>
+        <v>25146.56604403161</v>
       </c>
       <c r="F93">
-        <v>109726.0060847444</v>
+        <v>109725.3943211527</v>
       </c>
       <c r="G93">
-        <v>71419.686704341</v>
+        <v>71419.55665589591</v>
       </c>
       <c r="H93">
-        <v>41902.53083657908</v>
+        <v>41902.22727264865</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -15770,25 +15770,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>496340.2260905306</v>
+        <v>496339.0451121868</v>
       </c>
       <c r="C94">
-        <v>310080.3942278965</v>
+        <v>310079.4389780899</v>
       </c>
       <c r="D94">
-        <v>41593.53634248381</v>
+        <v>41593.09224470179</v>
       </c>
       <c r="E94">
-        <v>24451.9262437674</v>
+        <v>24451.48224314963</v>
       </c>
       <c r="F94">
-        <v>107301.3062737405</v>
+        <v>107299.4711608087</v>
       </c>
       <c r="G94">
-        <v>70107.05097877211</v>
+        <v>70106.66088884043</v>
       </c>
       <c r="H94">
-        <v>40880.90177678376</v>
+        <v>40879.99120562527</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -15796,25 +15796,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>496392.0156433649</v>
+        <v>496389.654312044</v>
       </c>
       <c r="C95">
-        <v>307112.9356682157</v>
+        <v>307111.0254531634</v>
       </c>
       <c r="D95">
-        <v>40747.09800423861</v>
+        <v>40746.21170480902</v>
       </c>
       <c r="E95">
-        <v>23764.82651046906</v>
+        <v>23763.94322854721</v>
       </c>
       <c r="F95">
-        <v>104893.0117533188</v>
+        <v>104889.3426429715</v>
       </c>
       <c r="G95">
-        <v>68785.28868671421</v>
+        <v>68784.50870335332</v>
       </c>
       <c r="H95">
-        <v>39877.0593568953</v>
+        <v>39875.23901669773</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -15822,25 +15822,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>496340.6558695975</v>
+        <v>496336.721776757</v>
       </c>
       <c r="C96">
-        <v>304105.6989349496</v>
+        <v>304102.5159836581</v>
       </c>
       <c r="D96">
-        <v>39910.81187998641</v>
+        <v>39909.33898060054</v>
       </c>
       <c r="E96">
-        <v>23082.2869958367</v>
+        <v>23080.82445190028</v>
       </c>
       <c r="F96">
-        <v>102493.2563012849</v>
+        <v>102487.1450201853</v>
       </c>
       <c r="G96">
-        <v>67453.30623286116</v>
+        <v>67452.00674770972</v>
       </c>
       <c r="H96">
-        <v>38878.60094459286</v>
+        <v>38875.56994402374</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -15848,25 +15848,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>496168.1307296968</v>
+        <v>496162.2324279277</v>
       </c>
       <c r="C97">
-        <v>301053.3577570132</v>
+        <v>301048.5848915692</v>
       </c>
       <c r="D97">
-        <v>39080.41043369447</v>
+        <v>39078.20913184739</v>
       </c>
       <c r="E97">
-        <v>22400.9047804479</v>
+        <v>22398.72767741026</v>
       </c>
       <c r="F97">
-        <v>100088.51542033</v>
+        <v>100079.3587018626</v>
       </c>
       <c r="G97">
-        <v>66109.70025297096</v>
+        <v>66107.75201599747</v>
       </c>
       <c r="H97">
-        <v>37873.77495709243</v>
+        <v>37869.23620923485</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -15874,25 +15874,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>495856.1272275417</v>
+        <v>495847.8745108605</v>
       </c>
       <c r="C98">
-        <v>297949.7035139655</v>
+        <v>297943.0243834874</v>
       </c>
       <c r="D98">
-        <v>38251.32306504188</v>
+        <v>38248.25477982857</v>
       </c>
       <c r="E98">
-        <v>21716.99759132571</v>
+        <v>21713.9759667666</v>
       </c>
       <c r="F98">
-        <v>97660.91182331915</v>
+        <v>97648.11469327872</v>
       </c>
       <c r="G98">
-        <v>64752.71369572441</v>
+        <v>64749.98793963344</v>
       </c>
       <c r="H98">
-        <v>36851.58595827149</v>
+        <v>36845.24890893405</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -15900,25 +15900,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>495385.5272384314</v>
+        <v>495374.5314289656</v>
       </c>
       <c r="C99">
-        <v>294787.3389221151</v>
+        <v>294778.4382595547</v>
       </c>
       <c r="D99">
-        <v>37418.62589284527</v>
+        <v>37414.55585366089</v>
       </c>
       <c r="E99">
-        <v>21026.58884289313</v>
+        <v>21022.59859181353</v>
       </c>
       <c r="F99">
-        <v>95189.53737964258</v>
+        <v>95172.51748573808</v>
       </c>
       <c r="G99">
-        <v>63380.18539214601</v>
+        <v>63376.55396444965</v>
       </c>
       <c r="H99">
-        <v>35801.75463948093</v>
+        <v>35793.33875150004</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -15926,25 +15926,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>494735.9198951901</v>
+        <v>494721.794134643</v>
       </c>
       <c r="C100">
-        <v>291557.3806427915</v>
+        <v>291545.9445418619</v>
       </c>
       <c r="D100">
-        <v>36576.98685714107</v>
+        <v>36571.78464603336</v>
       </c>
       <c r="E100">
-        <v>20325.38220548821</v>
+        <v>20320.30548370171</v>
       </c>
       <c r="F100">
-        <v>92651.51334388141</v>
+        <v>92629.70613692867</v>
       </c>
       <c r="G100">
-        <v>61989.4939366978</v>
+        <v>61984.82943802093</v>
       </c>
       <c r="H100">
-        <v>34714.49194982612</v>
+        <v>34703.73079370708</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -15952,25 +15952,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>493885.1685866033</v>
+        <v>493867.5281296382</v>
       </c>
       <c r="C101">
-        <v>288249.1871930226</v>
+        <v>288234.9034016002</v>
       </c>
       <c r="D101">
-        <v>35720.60784584379</v>
+        <v>35714.14788513782</v>
       </c>
       <c r="E101">
-        <v>19608.72499629514</v>
+        <v>19602.45051209339</v>
       </c>
       <c r="F101">
-        <v>90022.64470261082</v>
+        <v>89995.50927759206</v>
       </c>
       <c r="G101">
-        <v>60577.49573244552</v>
+        <v>60571.67165931212</v>
       </c>
       <c r="H101">
-        <v>33580.10817065608</v>
+        <v>33566.75384226271</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -15978,25 +15978,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>492809.0192750861</v>
+        <v>492787.4817845362</v>
       </c>
       <c r="C102">
-        <v>284850.1025994713</v>
+        <v>284832.6608280759</v>
       </c>
       <c r="D102">
-        <v>34843.16031306952</v>
+        <v>34835.32229234908</v>
       </c>
       <c r="E102">
-        <v>18871.55783336029</v>
+        <v>18863.98103618945</v>
       </c>
       <c r="F102">
-        <v>87277.63123127157</v>
+        <v>87244.65653609174</v>
       </c>
       <c r="G102">
-        <v>59140.45443297486</v>
+        <v>59133.34532428481</v>
       </c>
       <c r="H102">
-        <v>32388.52441865742</v>
+        <v>32372.35188147813</v>
       </c>
     </row>
   </sheetData>
@@ -17305,7 +17305,7 @@
         <v>22596.31241535694</v>
       </c>
       <c r="C93">
-        <v>4572.662765582127</v>
+        <v>4572.222044979917</v>
       </c>
       <c r="D93">
         <v>939.3034707214042</v>
@@ -17316,10 +17316,10 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>22711.63596458673</v>
+        <v>22711.63400871539</v>
       </c>
       <c r="C94">
-        <v>4463.463465628005</v>
+        <v>4462.582024449117</v>
       </c>
       <c r="D94">
         <v>939.4999115615909</v>
@@ -17330,10 +17330,10 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>22814.86249981035</v>
+        <v>22814.85417337215</v>
       </c>
       <c r="C95">
-        <v>4345.700359446328</v>
+        <v>4344.378197665231</v>
       </c>
       <c r="D95">
         <v>938.981872363877</v>
@@ -17344,10 +17344,10 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>22909.24226833223</v>
+        <v>22909.21972230101</v>
       </c>
       <c r="C96">
-        <v>4218.816264853834</v>
+        <v>4217.053382496058</v>
       </c>
       <c r="D96">
         <v>937.8423474490148</v>
@@ -17358,10 +17358,10 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>22997.27605749743</v>
+        <v>22997.22679915985</v>
       </c>
       <c r="C97">
-        <v>4082.11640600674</v>
+        <v>4079.912803046755</v>
       </c>
       <c r="D97">
         <v>936.1436467088271</v>
@@ -17372,10 +17372,10 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>23080.35781205554</v>
+        <v>23080.26334348858</v>
       </c>
       <c r="C98">
-        <v>3934.729275431464</v>
+        <v>3932.084951869268</v>
       </c>
       <c r="D98">
         <v>933.9036161802926</v>
@@ -17386,10 +17386,10 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>23158.72301425814</v>
+        <v>23158.55742006122</v>
       </c>
       <c r="C99">
-        <v>3775.580517410353</v>
+        <v>3772.495473169347</v>
       </c>
       <c r="D99">
         <v>931.0929829854296</v>
@@ -17400,10 +17400,10 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>23231.63003770946</v>
+        <v>23231.35865996842</v>
       </c>
       <c r="C100">
-        <v>3603.373200129239</v>
+        <v>3599.847435464758</v>
       </c>
       <c r="D100">
         <v>927.6409343183743</v>
@@ -17414,10 +17414,10 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>23297.65600970918</v>
+        <v>23297.23438381657</v>
       </c>
       <c r="C101">
-        <v>3416.569367443293</v>
+        <v>3412.6028821</v>
       </c>
       <c r="D101">
         <v>923.4448302602339</v>
@@ -17428,10 +17428,10 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>23354.99166018011</v>
+        <v>23354.36490481051</v>
       </c>
       <c r="C102">
-        <v>3213.361913265229</v>
+        <v>3208.954707243125</v>
       </c>
       <c r="D102">
         <v>918.3792444268204</v>
